--- a/Lab4/Lab 4 - IR Testing.xlsx
+++ b/Lab4/Lab 4 - IR Testing.xlsx
@@ -5,42 +5,69 @@
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tessa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/tessahaws_mines_edu/Documents/Years/Senior/Fall/Robotics/Labs/IntroToRobotics/Lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F1FC2-050A-439A-82D3-556C5533EB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{851F1FC2-050A-439A-82D3-556C5533EB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDA3D47E-27B8-48D6-B441-5F65FD99538D}"/>
   <bookViews>
-    <workbookView xWindow="-1062" yWindow="1206" windowWidth="23028" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13038" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Plots" sheetId="2" r:id="rId1"/>
+    <sheet name="Data Plots Right" sheetId="3" r:id="rId1"/>
+    <sheet name="Data Plots Left" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Data Plots'!$H$2,'Data Plots'!$J$2,'Data Plots'!$L$2</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Data Plots Left'!$H$2,'Data Plots Left'!$J$2,'Data Plots Left'!$L$2</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Data Plots Right'!$H$2,'Data Plots Right'!$J$2,'Data Plots Right'!$L$2</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Data Plots'!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Data Plots Left'!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Data Plots Right'!#REF!</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -61,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Linear Fit (1/(d + k))</t>
   </si>
@@ -954,7 +981,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data Plots'!$A$8:$A$30</c:f>
+              <c:f>'Data Plots Right'!$A$8:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1032,7 +1059,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data Plots'!$D$8:$D$30</c:f>
+              <c:f>'Data Plots Right'!$D$8:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1040,70 +1067,70 @@
                   <c:v>1.9550342130987292E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7106549364613879</c:v>
+                  <c:v>1.3685239491691104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9550342130987293</c:v>
+                  <c:v>1.466275659824047</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.5640273704789833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0527859237536656</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.1994134897360702</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7106549364613879</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6881720430107525</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>3.0791788856304985</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.9325513196480939</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1280547409579667</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1769305962854348</c:v>
+                  <c:v>2.4926686217008798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1280547409579667</c:v>
+                  <c:v>2.1016617790811338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1280547409579667</c:v>
+                  <c:v>1.8572825024437929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9325513196480939</c:v>
+                  <c:v>1.7595307917888565</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6881720430107525</c:v>
+                  <c:v>1.466275659824047</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4437927663734116</c:v>
+                  <c:v>1.3440860215053763</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1016617790811338</c:v>
+                  <c:v>1.1241446725317692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8572825024437929</c:v>
+                  <c:v>0.97751710654936463</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6129032258064515</c:v>
+                  <c:v>0.87976539589442826</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.466275659824047</c:v>
+                  <c:v>0.78201368523949166</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3685239491691104</c:v>
+                  <c:v>0.68426197458455518</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0997067448680351</c:v>
+                  <c:v>0.5620723362658846</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92864125122189645</c:v>
+                  <c:v>0.46432062561094822</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.83088954056695985</c:v>
+                  <c:v>0.36656891495601174</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.73313782991202348</c:v>
+                  <c:v>0.2932551319648094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,7 +1138,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8CA9-4879-A1F4-4CEFBDA78EBE}"/>
+              <c16:uniqueId val="{00000000-E21B-4E84-BDC7-A03FBA5A04AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1128,150 +1155,150 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data Plots'!$F$9:$F$30</c:f>
+              <c:f>'Data Plots Right'!$F$9:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>15.131635200894351</c:v>
+                  <c:v>9.7304201123743344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.211473120393315</c:v>
+                  <c:v>9.0936435424051236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.717758604063185</c:v>
+                  <c:v>8.5333215555279214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.131635200894351</c:v>
+                  <c:v>6.5078653197320637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.544684338718417</c:v>
+                  <c:v>6.0707829257233801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7296596658604493</c:v>
+                  <c:v>4.3045761616323155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1692916507571045</c:v>
+                  <c:v>4.5269306418581241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0399714935878794</c:v>
+                  <c:v>5.3470040714677758</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1692916507571045</c:v>
+                  <c:v>6.3555958440654132</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1692916507571045</c:v>
+                  <c:v>7.1944039214118813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7296596658604493</c:v>
+                  <c:v>7.5928681850026969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.544684338718417</c:v>
+                  <c:v>9.0936435424051236</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.522626228088772</c:v>
+                  <c:v>9.9034258602824892</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.273585435801209</c:v>
+                  <c:v>11.780657199762642</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.918944182895357</c:v>
+                  <c:v>13.472493381677801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.062490073887094</c:v>
+                  <c:v>14.892352614879403</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.691277458911873</c:v>
+                  <c:v>16.640213189007238</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.97085272336842</c:v>
+                  <c:v>18.844574701278837</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.661226953014115</c:v>
+                  <c:v>22.567584692387442</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.057854978334021</c:v>
+                  <c:v>26.785242051593645</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.381750695106668</c:v>
+                  <c:v>32.91669210948514</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.59043064815252</c:v>
+                  <c:v>39.715474837424566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data Plots'!$D$9:$D$30</c:f>
+              <c:f>'Data Plots Right'!$D$9:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.7106549364613879</c:v>
+                  <c:v>1.3685239491691104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9550342130987293</c:v>
+                  <c:v>1.466275659824047</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.5640273704789833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0527859237536656</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.1994134897360702</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7106549364613879</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6881720430107525</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>3.0791788856304985</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.9325513196480939</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1280547409579667</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1769305962854348</c:v>
+                  <c:v>2.4926686217008798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1280547409579667</c:v>
+                  <c:v>2.1016617790811338</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1280547409579667</c:v>
+                  <c:v>1.8572825024437929</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9325513196480939</c:v>
+                  <c:v>1.7595307917888565</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6881720430107525</c:v>
+                  <c:v>1.466275659824047</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4437927663734116</c:v>
+                  <c:v>1.3440860215053763</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1016617790811338</c:v>
+                  <c:v>1.1241446725317692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8572825024437929</c:v>
+                  <c:v>0.97751710654936463</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6129032258064515</c:v>
+                  <c:v>0.87976539589442826</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.466275659824047</c:v>
+                  <c:v>0.78201368523949166</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3685239491691104</c:v>
+                  <c:v>0.68426197458455518</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0997067448680351</c:v>
+                  <c:v>0.5620723362658846</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92864125122189645</c:v>
+                  <c:v>0.46432062561094822</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.83088954056695985</c:v>
+                  <c:v>0.36656891495601174</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.73313782991202348</c:v>
+                  <c:v>0.2932551319648094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,7 +1306,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8CA9-4879-A1F4-4CEFBDA78EBE}"/>
+              <c16:uniqueId val="{00000001-E21B-4E84-BDC7-A03FBA5A04AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1431,7 +1458,850 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data Plots'!$D$10:$D$30</c:f>
+              <c:f>'Data Plots Right'!$D$10:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.466275659824047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5640273704789833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0527859237536656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1994134897360702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0791788856304985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9325513196480939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4926686217008798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1016617790811338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8572825024437929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7595307917888565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.466275659824047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3440860215053763</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1241446725317692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97751710654936463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87976539589442826</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78201368523949166</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68426197458455518</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5620723362658846</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46432062561094822</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36656891495601174</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2932551319648094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data Plots Right'!$B$10:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.80645161290322587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57471264367816088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4464285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30864197530864196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26737967914438499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23584905660377356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19083969465648853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16025641025641024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13812154696132597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12135922330097088</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10822510822510822</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.765625E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1699346405228759E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.02247191011236E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1576354679802964E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4824561403508776E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9407114624505935E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9619651347068151E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3068783068783074E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8376844494892167E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4850894632206758E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F24D-4D8B-B4F5-F01A5ECDA287}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effective Range</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30799947983566506"/>
+                  <c:y val="-3.9078300491626368E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Data Plots Right'!$D$15,'Data Plots Right'!$D$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.9325513196480939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2932551319648094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Data Plots Right'!$B$15,'Data Plots Right'!$B$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.23584905660377356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4850894632206758E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F24D-4D8B-B4F5-F01A5ECDA287}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2133018632"/>
+        <c:axId val="2132977176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2133018632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2132977176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2132977176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>1/(d+k)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133018632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IR Distance Measurements</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Measured Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data Plots Left'!$A$8:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data Plots Left'!$D$8:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.9550342130987292E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7106549364613879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9550342130987293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1994134897360702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7106549364613879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6881720430107525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9325513196480939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1280547409579667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1769305962854348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1280547409579667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1280547409579667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9325513196480939</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6881720430107525</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4437927663734116</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1016617790811338</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8572825024437929</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6129032258064515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.466275659824047</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3685239491691104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0997067448680351</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92864125122189645</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83088954056695985</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73313782991202348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CA9-4879-A1F4-4CEFBDA78EBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Calculated Data</c:v>
+          </c:tx>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="0"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data Plots Left'!$F$9:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>15.131635200894351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.211473120393315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.717758604063185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.131635200894351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.544684338718417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7296596658604493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1692916507571045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0399714935878794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1692916507571045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1692916507571045</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7296596658604493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.544684338718417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.522626228088772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.273585435801209</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.918944182895357</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.062490073887094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.691277458911873</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.97085272336842</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.661226953014115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.057854978334021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.381750695106668</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.59043064815252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data Plots Left'!$D$9:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.7106549364613879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9550342130987293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1994134897360702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7106549364613879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6881720430107525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9325513196480939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1280547409579667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1769305962854348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1280547409579667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1280547409579667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9325513196480939</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6881720430107525</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4437927663734116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1016617790811338</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8572825024437929</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6129032258064515</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.466275659824047</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3685239491691104</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0997067448680351</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92864125122189645</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83088954056695985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.73313782991202348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CA9-4879-A1F4-4CEFBDA78EBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2099130472"/>
+        <c:axId val="2100104056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2099130472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2100104056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2100104056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2099130472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear Fit (1/(d+k))</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data Plots Left'!$D$10:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1503,7 +2373,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data Plots'!$B$10:$B$30</c:f>
+              <c:f>'Data Plots Left'!$B$10:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1612,7 +2482,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data Plots'!$D$15,'Data Plots'!$D$30)</c:f>
+              <c:f>('Data Plots Left'!$D$15,'Data Plots Left'!$D$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1627,7 +2497,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data Plots'!$B$15,'Data Plots'!$B$30)</c:f>
+              <c:f>('Data Plots Left'!$B$15,'Data Plots Left'!$B$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1759,6 +2629,147 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9323D7-3EA8-4C98-BB1D-0D95F499F33D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71966</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>196022</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C6799A-B3ED-461C-9292-E71F72EA9268}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11968</cdr:x>
+      <cdr:y>0.31472</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52929</cdr:x>
+      <cdr:y>0.52284</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9D31C2-BCB3-420B-9C90-F0D29060BC3E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="931334" y="1574800"/>
+          <a:ext cx="3187700" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>The region before the peak represents the effective range of the sensor</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>287866</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173569</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35DBD1B-06BE-4D38-A6AE-3FBDB1C92F92}"/>
             </a:ext>
           </a:extLst>
@@ -1820,7 +2831,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2176,11 +3187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0206660C-AA49-4D00-A1FF-986D0400C815}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:S3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.41796875" defaultRowHeight="15.6"/>
@@ -2218,13 +3229,13 @@
         <v>1</v>
       </c>
       <c r="H2" s="25">
-        <v>3.7999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="25">
-        <v>5.0000000000000002E-5</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>3</v>
@@ -2255,7 +3266,7 @@
       </c>
       <c r="N3" s="27" t="str">
         <f>"d = 1/("&amp;ROUND(H2,6)&amp;"*V + "&amp;ROUND(J2,6)&amp;") - "&amp;ROUND(L2,6)</f>
-        <v>d = 1/(0.038*V + 0.00005) - 0.24</v>
+        <v>d = 1/(0.07*V + 0.0045) - 0.24</v>
       </c>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
@@ -2327,6 +3338,894 @@
       </c>
       <c r="E8" s="12">
         <f>$H$2*D8+$J$2</f>
+        <v>5.8685239491691101E-3</v>
+      </c>
+      <c r="F8" s="7">
+        <f>(E8^-1)-$L$2</f>
+        <v>170.16059965020406</v>
+      </c>
+      <c r="G8" s="21">
+        <f>A8-F8</f>
+        <v>-170.16059965020406</v>
+      </c>
+      <c r="H8" s="7">
+        <f>G8^2</f>
+        <v>28954.629673317027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B9" s="13">
+        <f>1/(A9+$L$2)</f>
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="C9" s="16">
+        <v>280</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" ref="D9:D30" si="0">(C9/1023)*$B$3</f>
+        <v>1.3685239491691104</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" ref="E9:E30" si="1">$H$2*D9+$J$2</f>
+        <v>0.10029667644183773</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" ref="F9:F30" si="2">(E9^-1)-$L$2</f>
+        <v>9.7304201123743344</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" ref="G9:G30" si="3">A9-F9</f>
+        <v>-9.2304201123743344</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" ref="H9:H30" si="4">G9^2</f>
+        <v>85.200655450924614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <f>1/(A10+$L$2)</f>
+        <v>0.80645161290322587</v>
+      </c>
+      <c r="C10" s="16">
+        <v>300</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="0"/>
+        <v>1.466275659824047</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.10713929618768329</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="2"/>
+        <v>9.0936435424051236</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="3"/>
+        <v>-8.0936435424051236</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="4"/>
+        <v>65.507065791516155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B11" s="13">
+        <f t="shared" ref="B11:B30" si="5">1/(A11+$L$2)</f>
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="C11" s="16">
+        <v>320</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
+        <v>1.5640273704789833</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.11398191593352884</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="2"/>
+        <v>8.5333215555279214</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="3"/>
+        <v>-7.0333215555279214</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="4"/>
+        <v>49.467612103453696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4464285714285714</v>
+      </c>
+      <c r="C12" s="16">
+        <v>420</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="0"/>
+        <v>2.0527859237536656</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.14819501466275661</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="2"/>
+        <v>6.5078653197320637</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="3"/>
+        <v>-4.5078653197320637</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="4"/>
+        <v>20.320849740843062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13">
+        <f t="shared" si="5"/>
+        <v>0.30864197530864196</v>
+      </c>
+      <c r="C13" s="16">
+        <v>450</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>2.1994134897360702</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.15845894428152493</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="2"/>
+        <v>6.0707829257233801</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="3"/>
+        <v>-3.0707829257233801</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="4"/>
+        <v>9.4297077769142419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="B14" s="13">
+        <f t="shared" si="5"/>
+        <v>0.26737967914438499</v>
+      </c>
+      <c r="C14" s="16">
+        <v>630</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
+        <v>3.0791788856304985</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.2200425219941349</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="2"/>
+        <v>4.3045761616323155</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="3"/>
+        <v>-0.80457616163231549</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="4"/>
+        <v>0.64734279986698984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="13">
+        <f t="shared" si="5"/>
+        <v>0.23584905660377356</v>
+      </c>
+      <c r="C15" s="16">
+        <v>600</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
+        <v>2.9325513196480939</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20977859237536658</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="2"/>
+        <v>4.5269306418581241</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="3"/>
+        <v>-0.5269306418581241</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="4"/>
+        <v>0.27765590132901463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="8">
+        <v>5</v>
+      </c>
+      <c r="B16" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19083969465648853</v>
+      </c>
+      <c r="C16" s="16">
+        <v>510</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="0"/>
+        <v>2.4926686217008798</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1789868035190616</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="2"/>
+        <v>5.3470040714677758</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="3"/>
+        <v>-0.34700407146777579</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="4"/>
+        <v>0.12041182561521324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8">
+        <v>6</v>
+      </c>
+      <c r="B17" s="13">
+        <f t="shared" si="5"/>
+        <v>0.16025641025641024</v>
+      </c>
+      <c r="C17" s="16">
+        <v>430</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="0"/>
+        <v>2.1016617790811338</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>0.15161632453567939</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="2"/>
+        <v>6.3555958440654132</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="3"/>
+        <v>-0.35559584406541322</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="4"/>
+        <v>0.12644840431659368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8">
+        <v>7</v>
+      </c>
+      <c r="B18" s="13">
+        <f t="shared" si="5"/>
+        <v>0.13812154696132597</v>
+      </c>
+      <c r="C18" s="16">
+        <v>380</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="0"/>
+        <v>1.8572825024437929</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>0.13450977517106552</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="2"/>
+        <v>7.1944039214118813</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="3"/>
+        <v>-0.19440392141188134</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="4"/>
+        <v>3.7792884660316939E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8">
+        <v>8</v>
+      </c>
+      <c r="B19" s="13">
+        <f t="shared" si="5"/>
+        <v>0.12135922330097088</v>
+      </c>
+      <c r="C19" s="16">
+        <v>360</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="0"/>
+        <v>1.7595307917888565</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12766715542521997</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="2"/>
+        <v>7.5928681850026969</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="3"/>
+        <v>0.40713181499730311</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="4"/>
+        <v>0.16575631478299824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8">
+        <v>9</v>
+      </c>
+      <c r="B20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.10822510822510822</v>
+      </c>
+      <c r="C20" s="16">
+        <v>300</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="0"/>
+        <v>1.466275659824047</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>0.10713929618768329</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="2"/>
+        <v>9.0936435424051236</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="3"/>
+        <v>-9.3643542405123625E-2</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="4"/>
+        <v>8.7691130341801867E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13">
+        <f t="shared" si="5"/>
+        <v>9.765625E-2</v>
+      </c>
+      <c r="C21" s="16">
+        <v>275</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" si="0"/>
+        <v>1.3440860215053763</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>9.8586021505376348E-2</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="2"/>
+        <v>9.9034258602824892</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="3"/>
+        <v>9.6574139717510832E-2</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="4"/>
+        <v>9.3265644621773024E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="13">
+        <f t="shared" si="5"/>
+        <v>8.1699346405228759E-2</v>
+      </c>
+      <c r="C22" s="16">
+        <v>230</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" si="0"/>
+        <v>1.1241446725317692</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>8.3190127077223855E-2</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="2"/>
+        <v>11.780657199762642</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="3"/>
+        <v>0.2193428002373583</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="4"/>
+        <v>4.8111264015965667E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8">
+        <v>14</v>
+      </c>
+      <c r="B23" s="13">
+        <f t="shared" si="5"/>
+        <v>7.02247191011236E-2</v>
+      </c>
+      <c r="C23" s="16">
+        <v>200</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" si="0"/>
+        <v>0.97751710654936463</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>7.2926197458455536E-2</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="2"/>
+        <v>13.472493381677801</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="3"/>
+        <v>0.52750661832219947</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="4"/>
+        <v>0.27826323237372264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="13">
+        <f t="shared" si="5"/>
+        <v>6.1576354679802964E-2</v>
+      </c>
+      <c r="C24" s="16">
+        <v>180</v>
+      </c>
+      <c r="D24" s="19">
+        <f t="shared" si="0"/>
+        <v>0.87976539589442826</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="1"/>
+        <v>6.6083577712609989E-2</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="2"/>
+        <v>14.892352614879403</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="3"/>
+        <v>1.1076473851205968</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="4"/>
+        <v>1.2268827297644957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8">
+        <v>18</v>
+      </c>
+      <c r="B25" s="13">
+        <f t="shared" si="5"/>
+        <v>5.4824561403508776E-2</v>
+      </c>
+      <c r="C25" s="16">
+        <v>160</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" si="0"/>
+        <v>0.78201368523949166</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>5.9240957966764415E-2</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="2"/>
+        <v>16.640213189007238</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="3"/>
+        <v>1.3597868109927624</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="4"/>
+        <v>1.8490201713498666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8">
+        <v>20</v>
+      </c>
+      <c r="B26" s="13">
+        <f t="shared" si="5"/>
+        <v>4.9407114624505935E-2</v>
+      </c>
+      <c r="C26" s="16">
+        <v>140</v>
+      </c>
+      <c r="D26" s="19">
+        <f t="shared" si="0"/>
+        <v>0.68426197458455518</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>5.2398338220918862E-2</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="2"/>
+        <v>18.844574701278837</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="3"/>
+        <v>1.1554252987211626</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="4"/>
+        <v>1.3350076209248878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="13">
+        <f t="shared" si="5"/>
+        <v>3.9619651347068151E-2</v>
+      </c>
+      <c r="C27" s="16">
+        <v>115</v>
+      </c>
+      <c r="D27" s="19">
+        <f t="shared" si="0"/>
+        <v>0.5620723362658846</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>4.3845063538611923E-2</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="2"/>
+        <v>22.567584692387442</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="3"/>
+        <v>2.4324153076125583</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="4"/>
+        <v>5.9166442287078969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8">
+        <v>30</v>
+      </c>
+      <c r="B28" s="13">
+        <f t="shared" si="5"/>
+        <v>3.3068783068783074E-2</v>
+      </c>
+      <c r="C28" s="16">
+        <v>95</v>
+      </c>
+      <c r="D28" s="19">
+        <f t="shared" si="0"/>
+        <v>0.46432062561094822</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>3.7002443792766376E-2</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="2"/>
+        <v>26.785242051593645</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="3"/>
+        <v>3.2147579484063549</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="4"/>
+        <v>10.334668666841836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8">
+        <v>35</v>
+      </c>
+      <c r="B29" s="13">
+        <f t="shared" si="5"/>
+        <v>2.8376844494892167E-2</v>
+      </c>
+      <c r="C29" s="16">
+        <v>75</v>
+      </c>
+      <c r="D29" s="19">
+        <f t="shared" si="0"/>
+        <v>0.36656891495601174</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>3.0159824046920823E-2</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="2"/>
+        <v>32.91669210948514</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="3"/>
+        <v>2.0833078905148597</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="4"/>
+        <v>4.3401717666814745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="10">
+        <v>40</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="5"/>
+        <v>2.4850894632206758E-2</v>
+      </c>
+      <c r="C30" s="17">
+        <v>60</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" si="0"/>
+        <v>0.2932551319648094</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="1"/>
+        <v>2.502785923753666E-2</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="2"/>
+        <v>39.715474837424566</v>
+      </c>
+      <c r="G30" s="23">
+        <f t="shared" si="3"/>
+        <v>0.28452516257543436</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="4"/>
+        <v>8.0954568138577362E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="D31" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="G4:J5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.41796875" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="14" style="2" customWidth="1"/>
+    <col min="2" max="3" width="13.3125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.20703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.41796875" style="2"/>
+    <col min="12" max="12" width="20.5234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.41796875" style="2"/>
+    <col min="14" max="14" width="15.20703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.41796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="23.1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="25">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="26">
+        <v>0.24</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="27" t="str">
+        <f>"d = 1/("&amp;ROUND(H2,6)&amp;"*V + "&amp;ROUND(J2,6)&amp;") - "&amp;ROUND(L2,6)</f>
+        <v>d = 1/(0.038*V + 0.00005) - 0.24</v>
+      </c>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="5"/>
+      <c r="G4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="6">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12" t="e">
+        <f>1/(A8+$L$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="15">
+        <v>4</v>
+      </c>
+      <c r="D8" s="18">
+        <f>(C8/1023)*$B$3</f>
+        <v>1.9550342130987292E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <f>$H$2*D8+$J$2</f>
         <v>7.9291300097751713E-4</v>
       </c>
       <c r="F8" s="7">
@@ -2411,7 +4310,7 @@
         <v>1.5</v>
       </c>
       <c r="B11" s="13">
-        <f t="shared" ref="B10:B30" si="5">1/(A11+$L$2)</f>
+        <f t="shared" ref="B11:B30" si="5">1/(A11+$L$2)</f>
         <v>0.57471264367816088</v>
       </c>
       <c r="C11" s="16">

--- a/Lab4/Lab 4 - IR Testing.xlsx
+++ b/Lab4/Lab 4 - IR Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/tessahaws_mines_edu/Documents/Years/Senior/Fall/Robotics/Labs/IntroToRobotics/Lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{851F1FC2-050A-439A-82D3-556C5533EB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDA3D47E-27B8-48D6-B441-5F65FD99538D}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{851F1FC2-050A-439A-82D3-556C5533EB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0F14374-1F50-4535-8A03-DD22C4EDBFF2}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13038" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Plots Right" sheetId="3" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcCompleted="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -840,10 +840,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="42" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="21" xfId="42" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2891,6 +2891,10 @@
 </c:userShapes>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3190,29 +3194,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0206660C-AA49-4D00-A1FF-986D0400C815}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.41796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.3125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.89453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.20703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.41796875" style="2"/>
-    <col min="12" max="12" width="20.5234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.41796875" style="2"/>
-    <col min="14" max="14" width="15.20703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="12.41796875" style="2"/>
+    <col min="11" max="11" width="12.42578125" style="2"/>
+    <col min="12" max="12" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="2"/>
+    <col min="14" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.1">
+    <row r="1" spans="1:19" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3221,10 +3225,10 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="24" t="s">
         <v>1</v>
       </c>
@@ -3243,16 +3247,16 @@
       <c r="L2" s="26">
         <v>0.24</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
@@ -3264,15 +3268,15 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="27" t="str">
+      <c r="N3" s="28" t="str">
         <f>"d = 1/("&amp;ROUND(H2,6)&amp;"*V + "&amp;ROUND(J2,6)&amp;") - "&amp;ROUND(L2,6)</f>
         <v>d = 1/(0.07*V + 0.0045) - 0.24</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="5"/>
@@ -3518,7 +3522,7 @@
         <v>3.5</v>
       </c>
       <c r="B14" s="13">
-        <f t="shared" si="5"/>
+        <f>1/(A14+$L$2)</f>
         <v>0.26737967914438499</v>
       </c>
       <c r="C14" s="16">
@@ -3774,7 +3778,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="13">
-        <f t="shared" si="5"/>
+        <f>1/(A22+$L$2)</f>
         <v>8.1699346405228759E-2</v>
       </c>
       <c r="C22" s="16">
@@ -4078,29 +4082,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="I1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.41796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.3125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.89453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.20703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.41796875" style="2"/>
-    <col min="12" max="12" width="20.5234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.41796875" style="2"/>
-    <col min="14" max="14" width="15.20703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="12.41796875" style="2"/>
+    <col min="11" max="11" width="12.42578125" style="2"/>
+    <col min="12" max="12" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="2"/>
+    <col min="14" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.1">
+    <row r="1" spans="1:19" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4109,10 +4113,10 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="24" t="s">
         <v>1</v>
       </c>
@@ -4131,16 +4135,16 @@
       <c r="L2" s="26">
         <v>0.24</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
@@ -4152,15 +4156,15 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="27" t="str">
+      <c r="N3" s="28" t="str">
         <f>"d = 1/("&amp;ROUND(H2,6)&amp;"*V + "&amp;ROUND(J2,6)&amp;") - "&amp;ROUND(L2,6)</f>
         <v>d = 1/(0.038*V + 0.00005) - 0.24</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="5"/>
